--- a/src/Resources/file.xlsx
+++ b/src/Resources/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOCHANH\java\employee-management\src\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FB5415-AA0E-403E-835A-85118810A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACEB2FE-9D19-4CDB-A055-6FBB4AB02243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7236" yWindow="6024" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1968" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +389,7 @@
         <v>5000</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -403,7 +403,7 @@
         <v>5000</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2025</v>
